--- a/analysis/ifr2.xlsx
+++ b/analysis/ifr2.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\Czech\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA37C2B8-5632-46A2-BC9B-3CC88265F222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CE0B34C6-EA7D-4D26-9BB5-88BBFADD6459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{D8EF9432-3413-4C84-8CE6-0C7B02464893}"/>
+    <workbookView minimized="1" xWindow="350" yWindow="350" windowWidth="38380" windowHeight="20860" xr2:uid="{D8EF9432-3413-4C84-8CE6-0C7B02464893}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="ifr" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ifr!$A$1:$X$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
     <pivotCache cacheId="24" r:id="rId3"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="35">
   <si>
     <t>YearOfBirth</t>
   </si>
@@ -119,13 +122,16 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>Sum of alivew1</t>
+  </si>
+  <si>
     <t>Sum of infectedw1</t>
   </si>
   <si>
-    <t>Sum of alivew2</t>
+    <t>Sum of COVID_diedw1</t>
   </si>
   <si>
-    <t>Sum of vaxxedw2</t>
+    <t>Sum of vaxxedw1</t>
   </si>
 </sst>
 </file>
@@ -11487,7 +11493,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF407BDD-75B4-48AB-8979-E640A53153E2}" name="PivotTable8" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:E9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -11501,14 +11507,14 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -11549,7 +11555,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -11559,11 +11565,15 @@
     <i i="2">
       <x v="2"/>
     </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="4">
+    <dataField name="Sum of alivew1" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of vaxxedw1" fld="5" baseField="0" baseItem="0"/>
     <dataField name="Sum of infectedw1" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of alivew2" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of vaxxedw2" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of COVID_diedw1" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -11894,21 +11904,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E2D5E5-3AE3-4DD8-9D54-3513EA1E1D93}">
-  <dimension ref="A3:D9"/>
+  <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -11916,94 +11927,115 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="4">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4">
-        <v>36</v>
+      <c r="E4" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
-        <v>40</v>
-      </c>
-      <c r="D6" s="4">
-        <v>32</v>
+      <c r="E6" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="4">
+        <v>449</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>41</v>
       </c>
-      <c r="C7" s="4">
-        <v>449</v>
-      </c>
-      <c r="D7" s="4">
-        <v>262</v>
+      <c r="E7" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="4">
+        <v>410</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
-        <v>415</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4">
+        <v>957</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
         <v>57</v>
       </c>
-      <c r="C9" s="4">
-        <v>962</v>
-      </c>
-      <c r="D9" s="4">
-        <v>332</v>
+      <c r="E9" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12015,7 +12047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A804EC7-F213-4B26-85F3-E4C56CAC0E07}">
   <dimension ref="A1:X413"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -41955,6 +41989,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X1" xr:uid="{5A804EC7-F213-4B26-85F3-E4C56CAC0E07}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>